--- a/test/functional/calendar.xlsx
+++ b/test/functional/calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Vizsgaremek\Forgalmi-Napl-\test\functional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D43391BB-8C32-4B1C-9EBF-02369B44E6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518AAC7F-826A-454D-9777-A719BBB2BB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0B1E403B-62D6-4BAC-8265-82972F2241FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B1E403B-62D6-4BAC-8265-82972F2241FE}"/>
   </bookViews>
   <sheets>
     <sheet name="teacher" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
   <si>
     <t>Sorszám</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Foglalt órák megjelenítése</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Foglalt órák megjelenítése a 
@@ -100,17 +97,6 @@
 Ne történjen meg adatbevitel</t>
   </si>
   <si>
-    <t>Foglalt órára kattintva látható legyen a kezdő és végső KM és ezeket lehessen módosítani
-Hiányos adat ( kezdő vagy végső KM )</t>
-  </si>
-  <si>
-    <t>kezdőKM = ""
-végsőKM = "100060"
-vagy
-kezdőKM = "100060"
-végsőKM = ""</t>
-  </si>
-  <si>
     <t>NOK</t>
   </si>
   <si>
@@ -165,6 +151,62 @@
   </si>
   <si>
     <t>Jelzés arról, hogy ezt az óra már rögzitve lett  "kész" címszóval</t>
+  </si>
+  <si>
+    <t>1. A diák bejelentkezik
+2. A diák ki választja a "Naptár" oldalt
+3. Naptárnézet megjelenése</t>
+  </si>
+  <si>
+    <t>1. A diák bejelentkezik
+2. A diák ki választja a "Naptár" oldalt
+3. Naptárnézet megjelenése
+4. A diák bele kattint egy üres mezőbe</t>
+  </si>
+  <si>
+    <t>1. A diák bejelentkezik
+2. A diák ki választja a "Naptár" oldalt
+3. Naptárnézet megjelenése
+4. A diák bele kattint egy Piros mezőbe</t>
+  </si>
+  <si>
+    <t>1. A diák bejelentkezik
+2. A diák ki választja a "Naptár" oldalt
+3. Naptárnézet megjelenése
+4. A diák bele kattint egy olyan mezőbe, amely az ő nevét tartalmazza</t>
+  </si>
+  <si>
+    <t>1. A diák bejelentkezik
+2. A diák ki választja a "Naptár" oldalt
+3. Naptárnézet megjelenése
+4. A diák bele kattint egy olyan mezőbe, amely kívül esik a foglalható órák intervallumán</t>
+  </si>
+  <si>
+    <t>1. A tanár bejelentkezik
+2. A tanár ki választja a "Naptár" oldalt
+3. Naptárnézet megjelenése</t>
+  </si>
+  <si>
+    <t>Foglalt órára kattintva látható legyen a kezdő és végső KM és ezeket lehessen módosítani
+Hiányos adat ( kezdő KM )</t>
+  </si>
+  <si>
+    <t>kezdőKM = ""
+végsőKM = "100060"</t>
+  </si>
+  <si>
+    <t>kezdőKM = "100060"
+végsőKM = ""</t>
+  </si>
+  <si>
+    <t>Foglalt órára kattintva látható legyen a kezdő és végső KM és ezeket lehessen módosítani
+Hiányos adat ( végső KM )</t>
+  </si>
+  <si>
+    <t>1. A tanár bejelentkezik
+2. A tanár ki választja a "Naptár" oldalt
+3. Naptárnézet megjelenése
+4. Egy "kész", levezetett órára kattint a tanár</t>
   </si>
 </sst>
 </file>
@@ -245,9 +287,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -256,6 +295,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,30 +613,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A360D597-A89B-4E8E-AB8F-818CBB412531}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="3" max="4" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.5703125" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -616,35 +659,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -670,120 +713,160 @@
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>13</v>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>17</v>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="B12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>5</v>
-      </c>
-      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+      <c r="E16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -800,28 +883,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1199F31-F371-4BDD-86C6-466CFD37AB52}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -850,28 +933,28 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -893,84 +976,84 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>25</v>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>27</v>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>29</v>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>31</v>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/test/functional/calendar.xlsx
+++ b/test/functional/calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Vizsgaremek\Forgalmi-Napl-\test\functional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518AAC7F-826A-454D-9777-A719BBB2BB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6FD11E-03B6-4AF3-B0B3-3AE09DAAA759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B1E403B-62D6-4BAC-8265-82972F2241FE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="47">
   <si>
     <t>Sorszám</t>
   </si>
@@ -207,6 +207,13 @@
 2. A tanár ki választja a "Naptár" oldalt
 3. Naptárnézet megjelenése
 4. Egy "kész", levezetett órára kattint a tanár</t>
+  </si>
+  <si>
+    <t>A végső Km nem lehet kisebb mint a kezdő</t>
+  </si>
+  <si>
+    <t>kezdőKM = "100060"
+végsőKM = "100000"</t>
   </si>
 </sst>
 </file>
@@ -613,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A360D597-A89B-4E8E-AB8F-818CBB412531}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,43 +836,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>6</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>7</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -976,7 +1003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -1036,7 +1063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>4</v>
       </c>
